--- a/employees.xlsx
+++ b/employees.xlsx
@@ -129,7 +129,15 @@
     <t>Egilsdóttir</t>
   </si>
   <si>
-    <t>ingibjorg</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>ingibjorg@example.com</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1763,6 +1771,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="" tooltip="" display="michael@example.com"/>
+    <hyperlink ref="D10" r:id="rId2" location="" tooltip="" display="ingibjorg@example.com"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
